--- a/data/trans_dic/P23_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede</t>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,58</t>
+          <t>0,89; 7,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 11,85</t>
+          <t>0,55; 4,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 17,58</t>
+          <t>0,64; 5,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,18</t>
+          <t>2,27; 10,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,66</t>
+          <t>2,84; 9,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,16</t>
+          <t>0,82; 4,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,33</t>
+          <t>2,23; 7,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,8</t>
+          <t>5,24; 14,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,93</t>
+          <t>2,28; 6,92</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 4,09</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 5,49</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 10,84</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 8,37</t>
+          <t>2,01; 8,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,51</t>
+          <t>1,37; 8,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,35</t>
+          <t>1,75; 8,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 14,4</t>
+          <t>1,56; 13,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,58</t>
+          <t>4,19; 12,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,26</t>
+          <t>1,75; 8,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 9,49</t>
+          <t>1,25; 7,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,11</t>
+          <t>3,22; 12,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,5</t>
+          <t>3,76; 9,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 6,52</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 6,61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 10,76</t>
         </is>
       </c>
     </row>
@@ -852,12 +937,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -867,32 +952,47 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 19,65</t>
+          <t>0,0; 31,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,21</t>
+          <t>0,0; 16,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,23</t>
+          <t>0,0; 12,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 16,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 10,28</t>
+          <t>0,0; 20,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 11,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,3</t>
+          <t>0,0; 5,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 15,73</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,94</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,16</t>
+          <t>1,55; 5,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,68</t>
+          <t>1,77; 6,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 10,13</t>
+          <t>1,39; 5,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,72</t>
+          <t>2,73; 8,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,86</t>
+          <t>4,06; 8,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,84</t>
+          <t>1,47; 4,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,71</t>
+          <t>2,67; 6,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,88</t>
+          <t>4,82; 10,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,65</t>
+          <t>3,3; 6,31</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 4,56</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 5,07</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 8,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11903</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7519</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8292</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28862</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27414</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9328</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18446</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50585</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39317</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16847</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26738</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>79448</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3810; 31485</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2024; 17460</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2403; 19920</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11482; 54227</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14427; 47368</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3446; 20073</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9067; 32396</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29507; 79368</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21376; 64970</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7792; 32210</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14362; 43018</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>52524; 116022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16461</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11535</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13353</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20974</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31096</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13944</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11701</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28890</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>47557</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25478</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25054</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>49864</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7218; 31410</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4374; 26586</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5607; 28334</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6438; 55234</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17825; 51336</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5909; 27122</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4157; 24346</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13849; 54125</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29543; 73179</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13488; 42805</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13646; 43168</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>28360; 90592</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7568</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2325</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2325</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7568</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 24796</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19714</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12759</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16619</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11004</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 25065</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16997</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22938</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>28364</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26622</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21644</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>53144</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60835</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>23271</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35440</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>79476</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>89200</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>49893</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>57085</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>132620</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13786; 46643</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13496; 49007</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10825; 41794</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28376; 89876</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>42041; 91793</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12307; 40026</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21956; 53201</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>53254; 114783</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>63494; 121631</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31514; 73066</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>38761; 81243</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>96034; 189822</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
